--- a/SuppXLS/Scen_ELC_REN.xlsx
+++ b/SuppXLS/Scen_ELC_REN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC766F50-B6A0-4437-B073-18CD99F798DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E539028-44BD-4866-8511-D9F3D139406E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WON" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="44">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>UP</t>
-  </si>
-  <si>
-    <t>Offshore wind potenatial</t>
   </si>
   <si>
     <t>ELC_SOLCAP</t>
@@ -663,17 +660,17 @@
       <selection activeCell="B2" sqref="B2:Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
-    <col min="4" max="4" width="38.86328125" customWidth="1"/>
-    <col min="5" max="5" width="20.53125" customWidth="1"/>
-    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -691,9 +688,9 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="2:17" ht="14.65" thickBot="1">
+    <row r="3" spans="2:17" ht="15.75" thickBot="1">
       <c r="B3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>11</v>
@@ -705,16 +702,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>5</v>
@@ -723,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>2</v>
@@ -732,13 +729,13 @@
         <v>7</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -746,7 +743,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>2050</v>
@@ -759,7 +756,7 @@
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -767,7 +764,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>2050</v>
@@ -776,7 +773,7 @@
         <v>8.7322500000000005</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -784,7 +781,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>2050</v>
@@ -793,7 +790,7 @@
         <v>5.7896999999999998</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:17">
@@ -801,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>2050</v>
@@ -810,7 +807,7 @@
         <v>3.9777</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -818,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2050</v>
@@ -827,7 +824,7 @@
         <v>3.9907499999999998</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -846,14 +843,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -871,9 +868,9 @@
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="2:17" ht="14.65" thickBot="1">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1">
       <c r="B2" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>11</v>
@@ -885,16 +882,16 @@
         <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>5</v>
@@ -903,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>2</v>
@@ -912,13 +909,13 @@
         <v>7</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -926,7 +923,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>2020</v>
@@ -947,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -964,7 +961,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>2030</v>
@@ -981,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>2050</v>
@@ -1003,13 +1000,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A15:M24"/>
+  <dimension ref="A15:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B24"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
@@ -1021,17 +1018,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:15">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:15">
       <c r="J18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:15">
       <c r="B19" s="5" t="s">
         <v>1</v>
       </c>
@@ -1069,12 +1066,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:15">
       <c r="B20" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1085,16 +1082,13 @@
       <c r="K20">
         <v>5</v>
       </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21">
         <v>2020</v>
@@ -1109,12 +1103,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:15">
       <c r="B22" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22">
         <v>2025</v>
@@ -1129,12 +1123,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:15">
       <c r="B23" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I23">
         <v>2030</v>
@@ -1149,12 +1143,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:15">
       <c r="B24" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24">
         <v>2050</v>
@@ -1163,10 +1157,13 @@
         <v>17</v>
       </c>
       <c r="K24">
-        <v>7.5</v>
+        <v>50</v>
       </c>
       <c r="L24">
         <v>1</v>
+      </c>
+      <c r="O24">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -1185,9 +1182,9 @@
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1239,13 +1236,13 @@
         <v>11</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>13</v>
@@ -1253,13 +1250,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>2020</v>
@@ -1277,18 +1274,18 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>2050</v>
@@ -1320,9 +1317,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1375,13 +1372,13 @@
         <v>11</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>13</v>
@@ -1389,13 +1386,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>2020</v>
@@ -1413,18 +1410,18 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>2050</v>
